--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Diego\Documents\GitHub\Parcial1TD3.FRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juan\Documents\GitHub\Parcial1TD3.FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C998D3A-5C86-4969-8B59-DA8BB92EFA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09BB93-9A9D-41AB-8179-20B976479FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
   </bookViews>
   <sheets>
     <sheet name="PINES LPC1769" sheetId="1" r:id="rId1"/>
+    <sheet name="Utilizados" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
   <si>
     <t>Pin</t>
   </si>
@@ -466,6 +477,36 @@
   </si>
   <si>
     <t>En pcb</t>
+  </si>
+  <si>
+    <t>ENTRADA ENCODER</t>
+  </si>
+  <si>
+    <t>ENTRADA ADC</t>
+  </si>
+  <si>
+    <t>SALIDA PWM</t>
+  </si>
+  <si>
+    <t>I2C LCD</t>
+  </si>
+  <si>
+    <t>Sentido de giro 1</t>
+  </si>
+  <si>
+    <t>Sentido de giro 2</t>
+  </si>
+  <si>
+    <t>timerfreq</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticksProm </t>
+  </si>
+  <si>
+    <t>RPM</t>
   </si>
 </sst>
 </file>
@@ -822,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A8C3BF-457D-4D1D-A669-D34EC16F2DCE}">
   <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,4 +1735,996 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8702FAE-76D2-45C0-ADC7-52792CED1F3C}">
+  <dimension ref="B2:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>33</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13">
+        <v>38</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14">
+        <v>39</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>41</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17">
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" t="s">
+        <v>123</v>
+      </c>
+      <c r="O17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18">
+        <v>43</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20">
+        <v>45</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K21">
+        <v>46</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22">
+        <v>47</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>134</v>
+      </c>
+      <c r="O22" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23">
+        <v>48</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" t="s">
+        <v>137</v>
+      </c>
+      <c r="O23" t="s">
+        <v>114</v>
+      </c>
+      <c r="P23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24">
+        <v>49</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26">
+        <v>51</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27">
+        <v>52</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M27" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" t="s">
+        <v>143</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28">
+        <v>53</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" t="s">
+        <v>144</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29">
+        <v>54</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC58D6-936A-42BA-8DE0-F9E3DE8AC18A}">
+  <dimension ref="A1:T8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>585594</v>
+      </c>
+      <c r="C1">
+        <v>688367</v>
+      </c>
+      <c r="D1">
+        <v>697880</v>
+      </c>
+      <c r="E1">
+        <v>681033</v>
+      </c>
+      <c r="F1">
+        <v>701351</v>
+      </c>
+      <c r="G1">
+        <v>671953</v>
+      </c>
+      <c r="H1">
+        <v>668298</v>
+      </c>
+      <c r="I1">
+        <v>669898</v>
+      </c>
+      <c r="J1">
+        <v>665060</v>
+      </c>
+      <c r="K1">
+        <v>677295</v>
+      </c>
+      <c r="L1">
+        <v>691150</v>
+      </c>
+      <c r="M1">
+        <v>704345</v>
+      </c>
+      <c r="N1">
+        <v>692330</v>
+      </c>
+      <c r="O1">
+        <v>678342</v>
+      </c>
+      <c r="P1">
+        <v>685475</v>
+      </c>
+      <c r="Q1">
+        <v>684363</v>
+      </c>
+      <c r="R1">
+        <v>696027</v>
+      </c>
+      <c r="S1">
+        <v>689242</v>
+      </c>
+      <c r="T1">
+        <v>682211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(B1:T1)</f>
+        <v>679484.94736842101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8">
+        <f>60*B3/B4/B6</f>
+        <v>706.41741492433823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juan\Documents\GitHub\Parcial1TD3.FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09BB93-9A9D-41AB-8179-20B976479FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C48C64-A50A-4D19-ABF2-F4B2E1099BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
   </bookViews>
   <sheets>
     <sheet name="PINES LPC1769" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="159">
   <si>
     <t>Pin</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>RPM</t>
+  </si>
+  <si>
+    <t>Botón Izq</t>
+  </si>
+  <si>
+    <t>Botón Der</t>
   </si>
 </sst>
 </file>
@@ -1741,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8702FAE-76D2-45C0-ADC7-52792CED1F3C}">
   <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,6 +2548,9 @@
       <c r="F27" t="s">
         <v>117</v>
       </c>
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
       <c r="K27">
         <v>52</v>
       </c>
@@ -2573,6 +2582,9 @@
       </c>
       <c r="F28" t="s">
         <v>119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>158</v>
       </c>
       <c r="K28">
         <v>53</v>
@@ -2622,7 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC58D6-936A-42BA-8DE0-F9E3DE8AC18A}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juan\Documents\GitHub\Parcial1TD3.FRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Diego\Documents\github\Parcial1TD3.FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C48C64-A50A-4D19-ABF2-F4B2E1099BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317789A-F7A9-4B34-BB57-0E8A02D7F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
   </bookViews>
@@ -1748,7 +1748,7 @@
   <dimension ref="B2:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Diego\Documents\github\Parcial1TD3.FRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juan\Documents\GitHub\Parcial1TD3.FRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2317789A-F7A9-4B34-BB57-0E8A02D7F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71B3E5F-5689-4133-A5E1-9CC14AF16800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0C0055F4-DE79-4D45-A8F8-1A9A34018993}"/>
   </bookViews>
   <sheets>
     <sheet name="PINES LPC1769" sheetId="1" r:id="rId1"/>
     <sheet name="Utilizados" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="165">
   <si>
     <t>Pin</t>
   </si>
@@ -513,6 +514,24 @@
   </si>
   <si>
     <t>Botón Der</t>
+  </si>
+  <si>
+    <t>timerFreq</t>
+  </si>
+  <si>
+    <t>prescaler</t>
+  </si>
+  <si>
+    <t>divisor</t>
+  </si>
+  <si>
+    <t>pwmCicles</t>
+  </si>
+  <si>
+    <t>pwmPeriod</t>
+  </si>
+  <si>
+    <t>pwmFreq</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8702FAE-76D2-45C0-ADC7-52792CED1F3C}">
   <dimension ref="B2:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2739,4 +2758,70 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C2A36-9FA4-4891-9916-DDE1DB75CA3B}">
+  <dimension ref="A4:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>96000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <f>B4/B6</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8">
+        <f>B5/B4*B7</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9">
+        <f>1/B8</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>